--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -893,11 +893,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -1054,7 +1055,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1067,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25">
       <c r="A1">
-        <v>1</v>
+        <v>2000001</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1083,7 +1084,7 @@
     </row>
     <row r="2" spans="1:5" ht="17.25">
       <c r="A2">
-        <v>2</v>
+        <v>2000002</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1100,7 +1101,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.25">
       <c r="A3">
-        <v>3</v>
+        <v>2000003</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1117,7 +1118,7 @@
     </row>
     <row r="4" spans="1:5" ht="17.25">
       <c r="A4">
-        <v>4</v>
+        <v>2000004</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1134,7 +1135,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25">
       <c r="A5">
-        <v>5</v>
+        <v>2000005</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1151,7 +1152,7 @@
     </row>
     <row r="6" spans="1:5" ht="17.25">
       <c r="A6">
-        <v>6</v>
+        <v>2000006</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1168,7 +1169,7 @@
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7">
-        <v>7</v>
+        <v>2000007</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1185,7 +1186,7 @@
     </row>
     <row r="8" spans="1:5" ht="17.25">
       <c r="A8">
-        <v>8</v>
+        <v>2000008</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1202,7 +1203,7 @@
     </row>
     <row r="9" spans="1:5" ht="17.25">
       <c r="A9">
-        <v>9</v>
+        <v>2000009</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1219,7 +1220,7 @@
     </row>
     <row r="10" spans="1:5" ht="17.25">
       <c r="A10">
-        <v>10</v>
+        <v>2000010</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -1243,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24">
       <c r="A1">
-        <v>1</v>
+        <v>90001</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
@@ -1265,7 +1266,7 @@
         <v>112</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>2000001</v>
       </c>
       <c r="E1" s="3">
         <v>45382</v>
@@ -1273,7 +1274,7 @@
     </row>
     <row r="2" spans="1:5" ht="36">
       <c r="A2">
-        <v>2</v>
+        <v>90002</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -1282,7 +1283,7 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2000001</v>
       </c>
       <c r="E2" s="3">
         <v>45383</v>
@@ -1290,7 +1291,7 @@
     </row>
     <row r="3" spans="1:5" ht="36">
       <c r="A3">
-        <v>3</v>
+        <v>90003</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -1299,7 +1300,7 @@
         <v>114</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2000001</v>
       </c>
       <c r="E3" s="3">
         <v>45384</v>
@@ -1307,7 +1308,7 @@
     </row>
     <row r="4" spans="1:5" ht="36">
       <c r="A4">
-        <v>4</v>
+        <v>90004</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
@@ -1316,7 +1317,7 @@
         <v>115</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>2000002</v>
       </c>
       <c r="E4" s="3">
         <v>45385</v>
@@ -1324,7 +1325,7 @@
     </row>
     <row r="5" spans="1:5" ht="24">
       <c r="A5">
-        <v>5</v>
+        <v>90005</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -1333,7 +1334,7 @@
         <v>116</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>2000002</v>
       </c>
       <c r="E5" s="3">
         <v>45386</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="6" spans="1:5" ht="36">
       <c r="A6">
-        <v>6</v>
+        <v>90006</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -1350,7 +1351,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>2000002</v>
       </c>
       <c r="E6" s="3">
         <v>45387</v>
@@ -1358,7 +1359,7 @@
     </row>
     <row r="7" spans="1:5" ht="36">
       <c r="A7">
-        <v>7</v>
+        <v>90007</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>36</v>
@@ -1367,7 +1368,7 @@
         <v>118</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2000003</v>
       </c>
       <c r="E7" s="3">
         <v>45388</v>
@@ -1375,7 +1376,7 @@
     </row>
     <row r="8" spans="1:5" ht="24">
       <c r="A8">
-        <v>8</v>
+        <v>90008</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>37</v>
@@ -1384,7 +1385,7 @@
         <v>119</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2000003</v>
       </c>
       <c r="E8" s="3">
         <v>45389</v>
@@ -1392,7 +1393,7 @@
     </row>
     <row r="9" spans="1:5" ht="36">
       <c r="A9">
-        <v>9</v>
+        <v>90009</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>38</v>
@@ -1401,7 +1402,7 @@
         <v>120</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2000003</v>
       </c>
       <c r="E9" s="3">
         <v>45390</v>
@@ -1409,7 +1410,7 @@
     </row>
     <row r="10" spans="1:5" ht="36">
       <c r="A10">
-        <v>10</v>
+        <v>90010</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>39</v>
@@ -1418,7 +1419,7 @@
         <v>121</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2000004</v>
       </c>
       <c r="E10" s="3">
         <v>45391</v>
@@ -1426,7 +1427,7 @@
     </row>
     <row r="11" spans="1:5" ht="36">
       <c r="A11">
-        <v>11</v>
+        <v>90011</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>40</v>
@@ -1435,7 +1436,7 @@
         <v>122</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2000004</v>
       </c>
       <c r="E11" s="3">
         <v>45392</v>
@@ -1443,7 +1444,7 @@
     </row>
     <row r="12" spans="1:5" ht="36">
       <c r="A12">
-        <v>12</v>
+        <v>90012</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
@@ -1452,7 +1453,7 @@
         <v>123</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2000004</v>
       </c>
       <c r="E12" s="3">
         <v>45393</v>
@@ -1460,7 +1461,7 @@
     </row>
     <row r="13" spans="1:5" ht="36">
       <c r="A13">
-        <v>13</v>
+        <v>90013</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>42</v>
@@ -1469,7 +1470,7 @@
         <v>124</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2000005</v>
       </c>
       <c r="E13" s="3">
         <v>45394</v>
@@ -1477,7 +1478,7 @@
     </row>
     <row r="14" spans="1:5" ht="36">
       <c r="A14">
-        <v>14</v>
+        <v>90014</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -1486,7 +1487,7 @@
         <v>125</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>2000005</v>
       </c>
       <c r="E14" s="3">
         <v>45395</v>
@@ -1494,7 +1495,7 @@
     </row>
     <row r="15" spans="1:5" ht="36">
       <c r="A15">
-        <v>15</v>
+        <v>90015</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -1503,7 +1504,7 @@
         <v>126</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2000005</v>
       </c>
       <c r="E15" s="3">
         <v>45396</v>
@@ -1511,7 +1512,7 @@
     </row>
     <row r="16" spans="1:5" ht="36">
       <c r="A16">
-        <v>16</v>
+        <v>90016</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -1520,7 +1521,7 @@
         <v>127</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>2000006</v>
       </c>
       <c r="E16" s="3">
         <v>45397</v>
@@ -1528,7 +1529,7 @@
     </row>
     <row r="17" spans="1:5" ht="24">
       <c r="A17">
-        <v>17</v>
+        <v>90017</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -1537,7 +1538,7 @@
         <v>128</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2000006</v>
       </c>
       <c r="E17" s="3">
         <v>45398</v>
@@ -1545,7 +1546,7 @@
     </row>
     <row r="18" spans="1:5" ht="24">
       <c r="A18">
-        <v>18</v>
+        <v>90018</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1554,7 +1555,7 @@
         <v>129</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>2000006</v>
       </c>
       <c r="E18" s="3">
         <v>45399</v>
@@ -1562,7 +1563,7 @@
     </row>
     <row r="19" spans="1:5" ht="36">
       <c r="A19">
-        <v>19</v>
+        <v>90019</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>48</v>
@@ -1571,7 +1572,7 @@
         <v>130</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>2000007</v>
       </c>
       <c r="E19" s="3">
         <v>45400</v>
@@ -1579,7 +1580,7 @@
     </row>
     <row r="20" spans="1:5" ht="36">
       <c r="A20">
-        <v>20</v>
+        <v>90020</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>49</v>
@@ -1588,7 +1589,7 @@
         <v>131</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>2000007</v>
       </c>
       <c r="E20" s="3">
         <v>45401</v>
@@ -1596,7 +1597,7 @@
     </row>
     <row r="21" spans="1:5" ht="36">
       <c r="A21">
-        <v>21</v>
+        <v>90021</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -1605,7 +1606,7 @@
         <v>132</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>2000007</v>
       </c>
       <c r="E21" s="3">
         <v>45402</v>
@@ -1613,7 +1614,7 @@
     </row>
     <row r="22" spans="1:5" ht="36">
       <c r="A22">
-        <v>22</v>
+        <v>90022</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>51</v>
@@ -1622,7 +1623,7 @@
         <v>133</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>2000008</v>
       </c>
       <c r="E22" s="3">
         <v>45403</v>
@@ -1630,7 +1631,7 @@
     </row>
     <row r="23" spans="1:5" ht="24">
       <c r="A23">
-        <v>23</v>
+        <v>90023</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
@@ -1639,7 +1640,7 @@
         <v>134</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>2000008</v>
       </c>
       <c r="E23" s="3">
         <v>45404</v>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="24" spans="1:5" ht="36">
       <c r="A24">
-        <v>24</v>
+        <v>90024</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
@@ -1656,7 +1657,7 @@
         <v>135</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2000008</v>
       </c>
       <c r="E24" s="3">
         <v>45405</v>
@@ -1664,7 +1665,7 @@
     </row>
     <row r="25" spans="1:5" ht="24">
       <c r="A25">
-        <v>25</v>
+        <v>90025</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>54</v>
@@ -1673,7 +1674,7 @@
         <v>136</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>2000009</v>
       </c>
       <c r="E25" s="3">
         <v>45406</v>
@@ -1681,7 +1682,7 @@
     </row>
     <row r="26" spans="1:5" ht="36">
       <c r="A26">
-        <v>26</v>
+        <v>90026</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
@@ -1690,7 +1691,7 @@
         <v>137</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>2000009</v>
       </c>
       <c r="E26" s="3">
         <v>45407</v>
@@ -1698,7 +1699,7 @@
     </row>
     <row r="27" spans="1:5" ht="36">
       <c r="A27">
-        <v>27</v>
+        <v>90027</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -1707,7 +1708,7 @@
         <v>138</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>2000009</v>
       </c>
       <c r="E27" s="3">
         <v>45408</v>
@@ -1715,7 +1716,7 @@
     </row>
     <row r="28" spans="1:5" ht="36">
       <c r="A28">
-        <v>28</v>
+        <v>90028</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>57</v>
@@ -1724,7 +1725,7 @@
         <v>139</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>2000010</v>
       </c>
       <c r="E28" s="3">
         <v>45409</v>
@@ -1732,7 +1733,7 @@
     </row>
     <row r="29" spans="1:5" ht="36">
       <c r="A29">
-        <v>29</v>
+        <v>90029</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
@@ -1741,7 +1742,7 @@
         <v>140</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>2000010</v>
       </c>
       <c r="E29" s="3">
         <v>45410</v>
@@ -1749,7 +1750,7 @@
     </row>
     <row r="30" spans="1:5" ht="36">
       <c r="A30">
-        <v>30</v>
+        <v>90030</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
@@ -1758,7 +1759,7 @@
         <v>141</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>2000010</v>
       </c>
       <c r="E30" s="3">
         <v>45411</v>
@@ -1773,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,7 +1788,7 @@
         <v>81</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>90001</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
@@ -1795,7 +1796,7 @@
         <v>66</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>90002</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
@@ -1803,7 +1804,7 @@
         <v>84</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>90003</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
@@ -1811,7 +1812,7 @@
         <v>111</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>90003</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
@@ -1819,7 +1820,7 @@
         <v>95</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>90003</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
@@ -1827,7 +1828,7 @@
         <v>79</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>90004</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
@@ -1835,7 +1836,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>90004</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
@@ -1843,7 +1844,7 @@
         <v>68</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>90005</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
@@ -1851,7 +1852,7 @@
         <v>108</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>90005</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
@@ -1859,7 +1860,7 @@
         <v>97</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>90005</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
@@ -1867,7 +1868,7 @@
         <v>62</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>90006</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
@@ -1875,7 +1876,7 @@
         <v>82</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>90006</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
@@ -1883,7 +1884,7 @@
         <v>78</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>90006</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
@@ -1891,7 +1892,7 @@
         <v>107</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>90006</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
@@ -1899,7 +1900,7 @@
         <v>102</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>90007</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
@@ -1907,7 +1908,7 @@
         <v>67</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>90008</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
@@ -1915,7 +1916,7 @@
         <v>63</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>90008</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
@@ -1923,7 +1924,7 @@
         <v>69</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>90009</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
@@ -1931,7 +1932,7 @@
         <v>72</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>90010</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
@@ -1939,7 +1940,7 @@
         <v>89</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>90010</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
@@ -1947,7 +1948,7 @@
         <v>76</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>90011</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
@@ -1955,7 +1956,7 @@
         <v>91</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>90012</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25">
@@ -1963,7 +1964,7 @@
         <v>86</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>90013</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
@@ -1971,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>90013</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25">
@@ -1979,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>90014</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
@@ -1987,7 +1988,7 @@
         <v>88</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>90015</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25">
@@ -1995,7 +1996,7 @@
         <v>73</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>90016</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
@@ -2003,7 +2004,7 @@
         <v>87</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>90017</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25">
@@ -2011,7 +2012,7 @@
         <v>90</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>90018</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
@@ -2019,7 +2020,7 @@
         <v>70</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>90018</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25">
@@ -2027,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>90019</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
@@ -2035,7 +2036,7 @@
         <v>110</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>90020</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25">
@@ -2043,7 +2044,7 @@
         <v>77</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>90021</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
@@ -2051,7 +2052,7 @@
         <v>96</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>90021</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
@@ -2059,7 +2060,7 @@
         <v>92</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>90021</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
@@ -2067,7 +2068,7 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>90022</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25">
@@ -2075,7 +2076,7 @@
         <v>98</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>90022</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25">
@@ -2083,7 +2084,7 @@
         <v>100</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>90023</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
@@ -2091,7 +2092,7 @@
         <v>106</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
@@ -2099,7 +2100,7 @@
         <v>103</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
@@ -2107,7 +2108,7 @@
         <v>80</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>90024</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
@@ -2115,7 +2116,7 @@
         <v>85</v>
       </c>
       <c r="B42">
-        <v>25</v>
+        <v>90025</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
@@ -2123,7 +2124,7 @@
         <v>83</v>
       </c>
       <c r="B43">
-        <v>26</v>
+        <v>90026</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
@@ -2131,7 +2132,7 @@
         <v>93</v>
       </c>
       <c r="B44">
-        <v>27</v>
+        <v>90027</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
@@ -2139,7 +2140,7 @@
         <v>105</v>
       </c>
       <c r="B45">
-        <v>28</v>
+        <v>90028</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25">
@@ -2147,7 +2148,7 @@
         <v>104</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>90029</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
@@ -2155,7 +2156,7 @@
         <v>99</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>90029</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
@@ -2163,7 +2164,7 @@
         <v>94</v>
       </c>
       <c r="B48">
-        <v>30</v>
+        <v>90030</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25">
@@ -2171,7 +2172,7 @@
         <v>71</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>90030</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25">
@@ -2179,7 +2180,7 @@
         <v>109</v>
       </c>
       <c r="B50">
-        <v>30</v>
+        <v>90030</v>
       </c>
     </row>
   </sheetData>
@@ -2191,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2205,7 +2206,7 @@
         <v>155</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>90001</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -2216,7 +2217,7 @@
         <v>156</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>90002</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2227,7 +2228,7 @@
         <v>157</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>90003</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2238,7 +2239,7 @@
         <v>158</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>90004</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2249,7 +2250,7 @@
         <v>159</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>90005</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2260,7 +2261,7 @@
         <v>160</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>90006</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2271,7 +2272,7 @@
         <v>161</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>90007</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2282,7 +2283,7 @@
         <v>162</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>90008</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2293,7 +2294,7 @@
         <v>163</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>90009</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2304,7 +2305,7 @@
         <v>164</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>90010</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2315,7 +2316,7 @@
         <v>165</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>90011</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2326,7 +2327,7 @@
         <v>166</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>90012</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2337,7 +2338,7 @@
         <v>167</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>90013</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2348,7 +2349,7 @@
         <v>168</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>90014</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2359,7 +2360,7 @@
         <v>169</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>90015</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2370,7 +2371,7 @@
         <v>170</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>90016</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2381,7 +2382,7 @@
         <v>171</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>90017</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2392,7 +2393,7 @@
         <v>172</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>90018</v>
       </c>
       <c r="C18">
         <v>1</v>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="183">
   <si>
     <t>"Проектный Архитектор: Путь к Профессиональному Развитию"</t>
   </si>
@@ -542,13 +542,43 @@
   </si>
   <si>
     <t>Сотрудничество с творческими индустриями – ты объединяешь миры технологий и творчества. Твое сотрудничество – ключ к синергии идей.</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706542648092_3x273nb.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706542814091_8CiopUQ.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706542953184_UxLoWIn.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543027736_Rn2yUGt.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543195895_HDxNBv7.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543332900_tQDtRzk.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543410387_UapnfNs.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543538599_wTCeeLk.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543594907_qSuFUj5.png</t>
+  </si>
+  <si>
+    <t>user_photos/kandinsky-download-1706543920006_i0OTdlu.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +607,15 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -595,10 +634,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -610,8 +650,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,9 +944,10 @@
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -917,8 +960,11 @@
       <c r="D1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25">
+      <c r="E1" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -931,8 +977,11 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25">
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -945,8 +994,11 @@
       <c r="D3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25">
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
@@ -959,8 +1011,11 @@
       <c r="D4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25">
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>146</v>
       </c>
@@ -973,8 +1028,11 @@
       <c r="D5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25">
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -987,8 +1045,11 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25">
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
@@ -1001,8 +1062,11 @@
       <c r="D7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25">
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>149</v>
       </c>
@@ -1015,8 +1079,11 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25">
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -1029,8 +1096,11 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25">
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -1043,10 +1113,16 @@
       <c r="D10" t="s">
         <v>61</v>
       </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" display="http://127.0.0.1:8000/media/user_photos/kandinsky-download-1706542648092_3x273nb.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1054,18 +1130,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>2000001</v>
       </c>
@@ -1082,7 +1158,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2000002</v>
       </c>
@@ -1096,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2000003</v>
       </c>
@@ -1116,7 +1192,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2000004</v>
       </c>
@@ -1133,7 +1209,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2000005</v>
       </c>
@@ -1150,7 +1226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2000006</v>
       </c>
@@ -1167,7 +1243,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2000007</v>
       </c>
@@ -1184,7 +1260,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2000008</v>
       </c>
@@ -1201,7 +1277,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2000009</v>
       </c>
@@ -1218,7 +1294,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2000010</v>
       </c>
@@ -1231,7 +1307,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2192,7 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -481,15 +481,6 @@
     <t>ElsaZenithCelestialExplorer</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Work done</t>
-  </si>
-  <si>
-    <t>Not done</t>
-  </si>
-  <si>
     <t>Ты уже на пути к овладению передовыми технологиями проектирования! Каждый шаг приближает тебя к новым вершинам технического мастерства.</t>
   </si>
   <si>
@@ -572,6 +563,15 @@
   </si>
   <si>
     <t>user_photos/kandinsky-download-1706543920006_i0OTdlu.png</t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
+    <t>Выполнен</t>
+  </si>
+  <si>
+    <t>Не выполнен</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25">
@@ -978,7 +978,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25">
@@ -995,7 +995,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25">
@@ -1012,7 +1012,7 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25">
@@ -1029,7 +1029,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25">
@@ -1046,7 +1046,7 @@
         <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25">
@@ -1063,7 +1063,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25">
@@ -1080,7 +1080,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25">
@@ -1097,7 +1097,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25">
@@ -1114,7 +1114,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,12 +1307,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>154</v>
+      <c r="E10" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1320,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2279,7 +2280,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1">
         <v>90001</v>
@@ -2290,7 +2291,7 @@
     </row>
     <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2">
         <v>90002</v>
@@ -2301,7 +2302,7 @@
     </row>
     <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>90003</v>
@@ -2312,7 +2313,7 @@
     </row>
     <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4">
         <v>90004</v>
@@ -2323,7 +2324,7 @@
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <v>90005</v>
@@ -2334,7 +2335,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>90006</v>
@@ -2345,7 +2346,7 @@
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>90007</v>
@@ -2356,7 +2357,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>90008</v>
@@ -2367,7 +2368,7 @@
     </row>
     <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>90009</v>
@@ -2378,7 +2379,7 @@
     </row>
     <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10">
         <v>90010</v>
@@ -2389,7 +2390,7 @@
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>90011</v>
@@ -2400,7 +2401,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12">
         <v>90012</v>
@@ -2411,7 +2412,7 @@
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>90013</v>
@@ -2422,7 +2423,7 @@
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>90014</v>
@@ -2433,7 +2434,7 @@
     </row>
     <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>90015</v>
@@ -2444,7 +2445,7 @@
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B16">
         <v>90016</v>
@@ -2455,7 +2456,7 @@
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17">
         <v>90017</v>
@@ -2466,7 +2467,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B18">
         <v>90018</v>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="tasks" sheetId="4" r:id="rId4"/>
     <sheet name="comments" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="183">
   <si>
     <t>"Проектный Архитектор: Путь к Профессиональному Развитию"</t>
   </si>
@@ -935,7 +935,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,186 +1128,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <v>2000001</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2000002</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2000003</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2000004</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2000005</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2000006</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>2000007</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2000008</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2000009</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2000010</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1319,526 +1290,436 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="71" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24">
-      <c r="A1">
-        <v>90001</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="24">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D1">
-        <v>2000001</v>
-      </c>
-      <c r="E1" s="3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36">
-      <c r="A2">
-        <v>90002</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4" ht="36">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D2">
-        <v>2000001</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36">
-      <c r="A3">
-        <v>90003</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" ht="36">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3">
-        <v>2000001</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>45384</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36">
-      <c r="A4">
-        <v>90004</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4" ht="36">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D4">
-        <v>2000002</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>45385</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24">
-      <c r="A5">
-        <v>90005</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:4" ht="24">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D5">
-        <v>2000002</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>45386</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36">
-      <c r="A6">
-        <v>90006</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D6">
-        <v>2000002</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>45387</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="36">
-      <c r="A7">
-        <v>90007</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:4" ht="36">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D7">
-        <v>2000003</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
         <v>45388</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24">
-      <c r="A8">
-        <v>90008</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:4" ht="24">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D8">
-        <v>2000003</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <v>45389</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="36">
-      <c r="A9">
-        <v>90009</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:4" ht="36">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D9">
-        <v>2000003</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36">
-      <c r="A10">
-        <v>90010</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:4" ht="36">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D10">
-        <v>2000004</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
         <v>45391</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36">
-      <c r="A11">
-        <v>90011</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:4" ht="36">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D11">
-        <v>2000004</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>45392</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="36">
-      <c r="A12">
-        <v>90012</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:4" ht="36">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D12">
-        <v>2000004</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36">
-      <c r="A13">
-        <v>90013</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:4" ht="36">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D13">
-        <v>2000005</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
         <v>45394</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="36">
-      <c r="A14">
-        <v>90014</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:4" ht="36">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D14">
-        <v>2000005</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
         <v>45395</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36">
-      <c r="A15">
-        <v>90015</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:4" ht="36">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D15">
-        <v>2000005</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
         <v>45396</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36">
-      <c r="A16">
-        <v>90016</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:4" ht="36">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D16">
-        <v>2000006</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
         <v>45397</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24">
-      <c r="A17">
-        <v>90017</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:4" ht="24">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D17">
-        <v>2000006</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
         <v>45398</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24">
-      <c r="A18">
-        <v>90018</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:4" ht="24">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D18">
-        <v>2000006</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <v>45399</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="36">
-      <c r="A19">
-        <v>90019</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:4" ht="36">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D19">
-        <v>2000007</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36">
-      <c r="A20">
-        <v>90020</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:4" ht="36">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D20">
-        <v>2000007</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36">
-      <c r="A21">
-        <v>90021</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:4" ht="36">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D21">
-        <v>2000007</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
         <v>45402</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36">
-      <c r="A22">
-        <v>90022</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:4" ht="36">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D22">
-        <v>2000008</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
         <v>45403</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24">
-      <c r="A23">
-        <v>90023</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:4" ht="24">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D23">
-        <v>2000008</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36">
-      <c r="A24">
-        <v>90024</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:4" ht="36">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D24">
-        <v>2000008</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
         <v>45405</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24">
-      <c r="A25">
-        <v>90025</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:4" ht="24">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D25">
-        <v>2000009</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3">
         <v>45406</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36">
-      <c r="A26">
-        <v>90026</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:4" ht="36">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D26">
-        <v>2000009</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
         <v>45407</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36">
-      <c r="A27">
-        <v>90027</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:4" ht="36">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D27">
-        <v>2000009</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3">
         <v>45408</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36">
-      <c r="A28">
-        <v>90028</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:4" ht="36">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D28">
-        <v>2000010</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
         <v>45409</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36">
-      <c r="A29">
-        <v>90029</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:4" ht="36">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D29">
-        <v>2000010</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
         <v>45410</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36">
-      <c r="A30">
-        <v>90030</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:4" ht="36">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D30">
-        <v>2000010</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
         <v>45411</v>
       </c>
     </row>
@@ -1851,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1864,400 +1745,400 @@
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1">
-        <v>90001</v>
+      <c r="B1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2">
-        <v>90002</v>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3">
-        <v>90003</v>
+      <c r="B3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B4">
-        <v>90003</v>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5">
-        <v>90003</v>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6">
-        <v>90004</v>
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B7">
-        <v>90004</v>
+      <c r="B7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8">
-        <v>90005</v>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B9">
-        <v>90005</v>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B10">
-        <v>90005</v>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B11">
-        <v>90006</v>
+      <c r="B11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12">
-        <v>90006</v>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13">
-        <v>90006</v>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14">
-        <v>90006</v>
+      <c r="B14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B15">
-        <v>90007</v>
+      <c r="B15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16">
-        <v>90008</v>
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17">
-        <v>90008</v>
+      <c r="B17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18">
-        <v>90009</v>
+      <c r="B18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B19">
-        <v>90010</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B20">
-        <v>90010</v>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21">
-        <v>90011</v>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B22">
-        <v>90012</v>
+      <c r="B22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B23">
-        <v>90013</v>
+      <c r="B23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24">
-        <v>90013</v>
+      <c r="B24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B25">
-        <v>90014</v>
+      <c r="B25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B26">
-        <v>90015</v>
+      <c r="B26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27">
-        <v>90016</v>
+      <c r="B27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28">
-        <v>90017</v>
+      <c r="B28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29">
-        <v>90018</v>
+      <c r="B29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30">
-        <v>90018</v>
+      <c r="B30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31">
-        <v>90019</v>
+      <c r="B31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B32">
-        <v>90020</v>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33">
-        <v>90021</v>
+      <c r="B33" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B34">
-        <v>90021</v>
+      <c r="B34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B35">
-        <v>90021</v>
+      <c r="B35" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36">
-        <v>90022</v>
+      <c r="B36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B37">
-        <v>90022</v>
+      <c r="B37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B38">
-        <v>90023</v>
+      <c r="B38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25">
       <c r="A39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B39">
-        <v>90024</v>
+      <c r="B39" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B40">
-        <v>90024</v>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41">
-        <v>90024</v>
+      <c r="B41" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42">
-        <v>90025</v>
+      <c r="B42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B43">
-        <v>90026</v>
+      <c r="B43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25">
       <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B44">
-        <v>90027</v>
+      <c r="B44" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25">
       <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B45">
-        <v>90028</v>
+      <c r="B45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46">
-        <v>90029</v>
+      <c r="B46" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25">
       <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B47">
-        <v>90029</v>
+      <c r="B47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48">
-        <v>90030</v>
+      <c r="B48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B49">
-        <v>90030</v>
+      <c r="B49" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B50">
-        <v>90030</v>
+      <c r="B50" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2269,211 +2150,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B1">
-        <v>90001</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2">
-        <v>90002</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B3">
-        <v>90003</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B4">
-        <v>90004</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B5">
-        <v>90005</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B6">
-        <v>90006</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B7">
-        <v>90007</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B8">
-        <v>90008</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B9">
-        <v>90009</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B10">
-        <v>90010</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B11">
-        <v>90011</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B12">
-        <v>90012</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B13">
-        <v>90013</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B14">
-        <v>90014</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B15">
-        <v>90015</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B16">
-        <v>90016</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B17">
-        <v>90017</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B18">
-        <v>90018</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -23,50 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="183">
-  <si>
-    <t>"Проектный Архитектор: Путь к Профессиональному Развитию"</t>
-  </si>
-  <si>
-    <t>"Инновационный Навигатор: Личный Курс в Будущее"</t>
-  </si>
-  <si>
-    <t>"Эксперт по Эффективности: Оптимизация Навыков и Знаний"</t>
-  </si>
-  <si>
-    <t>"Стратегический Руководитель: Шаги к Лидерству и Успеху"</t>
-  </si>
-  <si>
-    <t>"Технологический Пионер: Развитие в Области Современных Трендов"</t>
-  </si>
-  <si>
-    <t>"Креативный Магнит: Притягивание Идей и Инноваций"</t>
-  </si>
-  <si>
-    <t>"Глобальный Эксперт: Международное Профессиональное Развитие"</t>
-  </si>
-  <si>
-    <t>"Коуч-Компетентность: Самосовершенствование через Коучинг"</t>
-  </si>
-  <si>
-    <t>"Лидерская Симфония: Развитие Навыков Управления и Вдохновения"</t>
-  </si>
-  <si>
-    <t>"Умный Специалист: Интеллектуальное Развитие для Превосходства"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="163">
   <si>
     <t>Ирина Звездочкина</t>
   </si>
   <si>
-    <t>Гиперпространственный Аналитик</t>
-  </si>
-  <si>
     <t>Федор Туманный</t>
   </si>
   <si>
-    <t>Виртуальный Архитектор</t>
-  </si>
-  <si>
     <t>Альберт Лунный</t>
   </si>
   <si>
@@ -76,9 +40,6 @@
     <t>Оксана Плазменная</t>
   </si>
   <si>
-    <t>Инженер Квантовых Технологий</t>
-  </si>
-  <si>
     <t>Владимир Солнечный</t>
   </si>
   <si>
@@ -88,9 +49,6 @@
     <t>Эльза Зенитная</t>
   </si>
   <si>
-    <t>Магнитный Криптограф</t>
-  </si>
-  <si>
     <t>Артемис Ночная</t>
   </si>
   <si>
@@ -100,357 +58,21 @@
     <t>Валентина Галактическая</t>
   </si>
   <si>
-    <t>Гипертекстовый Дизайнер</t>
-  </si>
-  <si>
     <t>Дмитрий Параллельный</t>
   </si>
   <si>
-    <t>Квантовый Биотехнолог</t>
-  </si>
-  <si>
     <t>Анна Полярная</t>
   </si>
   <si>
-    <t>Космофизик-Кибернетик</t>
-  </si>
-  <si>
-    <t>Овладение передовыми технологиями проектирования.</t>
-  </si>
-  <si>
-    <t>Участие в международных профессиональных конференциях и семинарах.</t>
-  </si>
-  <si>
-    <t>Разработка и успешная реализация проекта высокой сложности.</t>
-  </si>
-  <si>
-    <t>Изучение и внедрение новых технологий в свою область деятельности.</t>
-  </si>
-  <si>
-    <t>Создание и ведение инновационного проекта.</t>
-  </si>
-  <si>
-    <t>Постоянное обновление навыков через учебные курсы и самообучение.</t>
-  </si>
-  <si>
-    <t>Повышение профессиональной эффективности и результативности работы.</t>
-  </si>
-  <si>
-    <t>Овладение методами временного управления и планирования.</t>
-  </si>
-  <si>
-    <t>Усовершенствование навыков коммуникации и коллаборации.</t>
-  </si>
-  <si>
-    <t>Развитие лидерских качеств и навыков принятия стратегических решений.</t>
-  </si>
-  <si>
-    <t>Участие в тренингах и мастер-классах по управлению персоналом.</t>
-  </si>
-  <si>
-    <t>Реализация проектов, направленных на достижение стратегических целей компании.</t>
-  </si>
-  <si>
-    <t>Изучение и внедрение инновационных технологий в рамках текущей деятельности.</t>
-  </si>
-  <si>
-    <t>Активное участие в профессиональных сообществах и форумах по новым технологиям.</t>
-  </si>
-  <si>
-    <t>Регулярное обучение новым языкам программирования и техническим навыкам.</t>
-  </si>
-  <si>
-    <t>Развитие креативности и способности к генерации нестандартных идей.</t>
-  </si>
-  <si>
-    <t>Участие в творческих проектах и исследованиях.</t>
-  </si>
-  <si>
-    <t>Сотрудничество с творческими индустриями и специалистами.</t>
-  </si>
-  <si>
-    <t>Получение международных сертификатов и аккредитаций.</t>
-  </si>
-  <si>
-    <t>Участие в международных конференциях и профессиональных мероприятиях.</t>
-  </si>
-  <si>
-    <t>Развитие межкультурных коммуникационных навыков.</t>
-  </si>
-  <si>
-    <t>Прохождение профессионального коучинга и получение сертификации.</t>
-  </si>
-  <si>
-    <t>Систематическое проведение сессий коучинга с собой и коллегами.</t>
-  </si>
-  <si>
-    <t>Участие в образовательных программах по развитию коучинговых навыков.</t>
-  </si>
-  <si>
-    <t>Участие в тренингах по развитию лидерских навыков.</t>
-  </si>
-  <si>
-    <t>Организация мероприятий и событий для вдохновения команды.</t>
-  </si>
-  <si>
-    <t>Регулярные обратные связи и совещания с сотрудниками для улучшения командного взаимодействия.</t>
-  </si>
-  <si>
-    <t>Регулярное чтение профессиональной литературы и научных публикаций.</t>
-  </si>
-  <si>
-    <t>Участие в интеллектуальных исследованиях и конференциях.</t>
-  </si>
-  <si>
-    <t>Прохождение курсов по повышению уровня экспертизы в своей области.</t>
-  </si>
-  <si>
     <t>chief</t>
   </si>
   <si>
     <t>employee</t>
   </si>
   <si>
-    <t>Изучить основные принципы работы с новыми CAD-программами.</t>
-  </si>
-  <si>
-    <t>Создать детальный план обучения и практики с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Разработать и провести внутренний семинар для коллег по передовым методам проектирования.</t>
-  </si>
-  <si>
-    <t>Принять участие в онлайн-курсах по программированию для проектирования.</t>
-  </si>
-  <si>
-    <t>Провести анализ успешных проектов, реализованных с использованием новых технологий.</t>
-  </si>
-  <si>
-    <t>Разработать план тестирования и внедрения новых технологий в текущие процессы.</t>
-  </si>
-  <si>
-    <t>Провести исследование рынка для выявления новых технологических трендов.</t>
-  </si>
-  <si>
-    <t>Создать прототип инновационного проекта с применением новых технологий.</t>
-  </si>
-  <si>
-    <t>Участвовать в хакатонах и конкурсах с целью представления новых идей и технологических решений.</t>
-  </si>
-  <si>
-    <t>Провести обучающий вебинар для сотрудников по особенностям новых технологий.</t>
-  </si>
-  <si>
-    <t>Разработать индивидуальный план управления временем и его практическое внедрение.</t>
-  </si>
-  <si>
-    <t>Применять методики SMART-целей для повышения результативности в проектах.</t>
-  </si>
-  <si>
-    <t>Участвовать в тренингах по техникам эффективного общения и деловой переписки.</t>
-  </si>
-  <si>
-    <t>Определить ключевые показатели эффективности работы и разработать мероприятия по их улучшению.</t>
-  </si>
-  <si>
-    <t>Создать систему обратной связи с коллегами для взаимного обмена лучшими практиками.</t>
-  </si>
-  <si>
-    <t>Пройти курс по развитию навыков лидерства и принятия стратегических решений.</t>
-  </si>
-  <si>
-    <t>Организовать и провести внутренний семинар по обсуждению стратегических целей компании.</t>
-  </si>
-  <si>
-    <t>Участвовать в кейс-стади и дискуссиях для тренировки аналитического мышления.</t>
-  </si>
-  <si>
-    <t>Провести мозговой штурм с командой для выработки стратегии на ближайшие 5 лет.</t>
-  </si>
-  <si>
-    <t>Взять на себя ответственность за решение ключевой стратегической задачи компании.</t>
-  </si>
-  <si>
-    <t>Создать пилотный проект с использованием инновационных технологий в собственной области.</t>
-  </si>
-  <si>
-    <t>Принять участие в инновационных лабораториях и исследовательских группах.</t>
-  </si>
-  <si>
-    <t>Провести анализ конкурентов и выявить, какие инновации применяются в их деятельности.</t>
-  </si>
-  <si>
-    <t>Подготовить отчет по результатам внедрения инноваций и предложить пути их оптимизации.</t>
-  </si>
-  <si>
-    <t>Составить перечень инновационных технологий, которые могут быть внедрены в будущем.</t>
-  </si>
-  <si>
-    <t>Участвовать в творческих мастер-классах и тренингах по стимулированию креативности.</t>
-  </si>
-  <si>
-    <t>Формировать команду для совместного творчества и обмена нестандартными идеями.</t>
-  </si>
-  <si>
-    <t>Провести сеансы брейншторминга для решения сложных задач.</t>
-  </si>
-  <si>
-    <t>Изучать и адаптировать методы дизайн-мышления для поиска новых идей.</t>
-  </si>
-  <si>
-    <t>Составить список вдохновляющих книг и исследований в области креативности.</t>
-  </si>
-  <si>
-    <t>Прохождение подготовительных курсов по подготовке к международным экзаменам.</t>
-  </si>
-  <si>
-    <t>Разработать портфолио, демонстрирующее профессиональные достижения и навыки.</t>
-  </si>
-  <si>
-    <t>Принять участие в международной конференции в качестве докладчика или участника.</t>
-  </si>
-  <si>
-    <t>Стать членом международных профессиональных объединений в выбранной области.</t>
-  </si>
-  <si>
-    <t>Организовать встречу с международным экспертом для обмена опытом и знаниями.</t>
-  </si>
-  <si>
-    <t>Выбрать профессионального коуча и начать с ним сотрудничество.</t>
-  </si>
-  <si>
-    <t>Установить четкие цели и задачи для коучинга.</t>
-  </si>
-  <si>
-    <t>Провести самоанализ своих сильных и слабых сторон при помощи коуча.</t>
-  </si>
-  <si>
-    <t>Участвовать в групповых сессиях коучинга для обмена опытом с коллегами.</t>
-  </si>
-  <si>
-    <t>Получить сертификат профессионального коуча и использовать новые навыки в повседневной деятельности.</t>
-  </si>
-  <si>
-    <t>Принять участие в тренинге по построению командной работы.</t>
-  </si>
-  <si>
-    <t>Организовать собственный тренинг для подчиненных по развитию лидерских качеств.</t>
-  </si>
-  <si>
-    <t>Взять на себя ответственность за решение конфликта в коллективе.</t>
-  </si>
-  <si>
-    <t>Разработать и провести семинар по развитию эмоционального интеллекта в лидерстве.</t>
-  </si>
-  <si>
-    <t>Применять навыки обратной связи для улучшения командной эффективности.</t>
-  </si>
-  <si>
-    <t>Создать ежемесячный график чтения научных журналов и статей.</t>
-  </si>
-  <si>
-    <t>Участвовать в круглых столах и обсуждениях научных публикаций с коллегами.</t>
-  </si>
-  <si>
-    <t>Провести литературный обзор по актуальным темам своей области.</t>
-  </si>
-  <si>
-    <t>Публиковать свои обзоры и статьи в профессиональных изданиях.</t>
-  </si>
-  <si>
-    <t>Формировать круг экспертов для регулярного обсуждения актуальных исследований и литературы.</t>
-  </si>
-  <si>
-    <t>Овладение передовыми технологиями проектирования: Повышение навыков работы с инновационными инструментами для эффективного проектирования.</t>
-  </si>
-  <si>
-    <t>Участие в международных профессиональных конференциях и семинарах: Обмен опытом с экспертами, расширение профессиональных горизонтов через участие в мировых мероприятиях.</t>
-  </si>
-  <si>
-    <t>Разработка и успешная реализация проекта высокой сложности: Создание и воплощение инновационных и сложных проектов, подтверждение высокого профессионального уровня.</t>
-  </si>
-  <si>
-    <t>Изучение и внедрение новых технологий в свою область деятельности: Активное освоение и внедрение инновационных технологий для оптимизации бизнес-процессов.</t>
-  </si>
-  <si>
-    <t>Создание и ведение инновационного проекта: Разработка и успешное внедрение новаторских проектов, способствующих развитию компании и отрасли.</t>
-  </si>
-  <si>
-    <t>Постоянное обновление навыков через учебные курсы и самообучение: Регулярное обучение, чтение литературы и участие в образовательных программ для постоянного роста.</t>
-  </si>
-  <si>
-    <t>Повышение профессиональной эффективности и результативности работы: Внедрение эффективных методов управления временем и задачами для оптимизации результатов.</t>
-  </si>
-  <si>
-    <t>Овладение методами временного управления и планирования: Развитие навыков управления временем и организации задач для повышения эффективности.</t>
-  </si>
-  <si>
-    <t>Усовершенствование навыков коммуникации и коллаборации: Развитие коммуникативных навыков и улучшение коллаборации с коллегами для эффективного взаимодействия.</t>
-  </si>
-  <si>
-    <t>Развитие лидерских качеств и навыков принятия стратегических решений: Формирование лидерских навыков для эффективного руководства и стратегического развития.</t>
-  </si>
-  <si>
-    <t>Участие в тренингах и мастер-классах по управлению персоналом: Совершенствование управленческих навыков через обучение и практическую реализацию.</t>
-  </si>
-  <si>
-    <t>Реализация проектов, направленных на достижение стратегических целей компании: Активное участие в проектах, способствующих достижению долгосрочных стратегических целей организации.</t>
-  </si>
-  <si>
-    <t>Изучение и внедрение инновационных технологий в рамках текущей деятельности: Постоянное обновление рабочих методов и технологий с использованием инновационных подходов.</t>
-  </si>
-  <si>
     <t>Активное участие в профессиональных сообществах и форумах по новым технологиям: Обмен опытом и знаниями в рамках активного участия в профессиональных сетях и форумах.</t>
   </si>
   <si>
-    <t>Регулярное обучение новым языкам программирования и техническим навыкам: Постоянное расширение технической компетенции через учебу и освоение новых языков программирования.</t>
-  </si>
-  <si>
-    <t>Развитие креативности и способности к генерации нестандартных идей: Активное развитие творческих способностей для поиска нестандартных и инновационных решений.</t>
-  </si>
-  <si>
-    <t>Участие в творческих проектах и исследованиях: Активное участие в креативных проектах и исследованиях для развития творческих навыков.</t>
-  </si>
-  <si>
-    <t>Сотрудничество с творческими индустриями и специалистами: Взаимодействие с творческими секторами и специалистами для обмена опытом и идеями.</t>
-  </si>
-  <si>
-    <t>Получение международных сертификатов и аккредитаций: Сертификация для подтверждения квалификации и расширения возможностей в международном масштабе.</t>
-  </si>
-  <si>
-    <t>Участие в международных конференциях и профессиональных мероприятиях: Активное участие в международных событиях для обмена опытом и установления профессиональных контактов.</t>
-  </si>
-  <si>
-    <t>Развитие межкультурных коммуникационных навыков: Улучшение навыков взаимодействия с представителями различных культур для успешной работы в международной среде.</t>
-  </si>
-  <si>
-    <t>Прохождение профессионального коучинга и получение сертификации: Личностный рост и развитие навыков коучинга для эффективного руководства и менторства.</t>
-  </si>
-  <si>
-    <t>Систематическое проведение сессий коучинга с собой и коллегами: Регулярные сессии для личностного развития и поддержки коллег в достижении своих целей.</t>
-  </si>
-  <si>
-    <t>Участие в образовательных программах по развитию коучинговых навыков: Активное участие в специализированных образовательных программах для совершенствования коучинговых навыков.</t>
-  </si>
-  <si>
-    <t>Участие в тренингах по развитию лидерских навыков: Активное участие в тренингах для развития лидерских качеств и эффективного управления командой.</t>
-  </si>
-  <si>
-    <t>Организация мероприятий и событий для вдохновения команды: Регулярная организация мероприятий для стимулирования творчества и мотивации сотрудников.</t>
-  </si>
-  <si>
-    <t>Регулярные обратные связи и совещания с сотрудниками для улучшения командного взаимодействия: Систематические обсуждения для повышения эффективности командной работы и решения возникающих вопросов.</t>
-  </si>
-  <si>
-    <t>Регулярное чтение профессиональной литературы и научных публикаций: Постоянное обновление знаний через систематическое чтение профессиональных материалов и участие в научных исследованиях.</t>
-  </si>
-  <si>
-    <t>Участие в интеллектуальных исследованиях и конференциях: Активное участие в научных исследованиях для обмена знанийми и актуализации информации в выбранной области.</t>
-  </si>
-  <si>
-    <t>Прохождение курсов по повышению уровня экспертизы в своей области: Развитие экспертных знаний и умений через прохождение специализированных образовательных программ.</t>
-  </si>
-  <si>
     <t>AlbertLunnyExplorer</t>
   </si>
   <si>
@@ -572,6 +194,324 @@
   </si>
   <si>
     <t>Не выполнен</t>
+  </si>
+  <si>
+    <t>Космофиз-Кибернетик</t>
+  </si>
+  <si>
+    <t>Гип. Дизайнер</t>
+  </si>
+  <si>
+    <t>Квант. Биотех</t>
+  </si>
+  <si>
+    <t>Гип. Аналитик</t>
+  </si>
+  <si>
+    <t>Инж. Кв. Техн.</t>
+  </si>
+  <si>
+    <t>Вирт. Архитектор</t>
+  </si>
+  <si>
+    <t>Магн. Криптогр.</t>
+  </si>
+  <si>
+    <t>Курс в Будущее</t>
+  </si>
+  <si>
+    <t>Оптимизация Навыков и Знаний</t>
+  </si>
+  <si>
+    <t>Шаги к Лидерству и Успеху</t>
+  </si>
+  <si>
+    <t>Развитие в Современных Трендах</t>
+  </si>
+  <si>
+    <t>Притягивание Идей и Инноваций</t>
+  </si>
+  <si>
+    <t>Международное Проф. Развитие</t>
+  </si>
+  <si>
+    <t>Коуч-Компетентность</t>
+  </si>
+  <si>
+    <t>Развитие Навыков Управления</t>
+  </si>
+  <si>
+    <t>Интеллектуальное Развитие</t>
+  </si>
+  <si>
+    <t>Архитектор-Путь к Развитию</t>
+  </si>
+  <si>
+    <t>Овладение новыми технологиями</t>
+  </si>
+  <si>
+    <t>Изучение трендов в индустрии</t>
+  </si>
+  <si>
+    <t>Подготовка к будущим вызовам</t>
+  </si>
+  <si>
+    <t>Развитие навыков адаптации</t>
+  </si>
+  <si>
+    <t>Повышение эффективности работы</t>
+  </si>
+  <si>
+    <t>Обучение современным методикам</t>
+  </si>
+  <si>
+    <t>Развитие лидерских качеств</t>
+  </si>
+  <si>
+    <t>Участие в управлении проектами</t>
+  </si>
+  <si>
+    <t>Внедрение инноваций в работу</t>
+  </si>
+  <si>
+    <t>Поддержка цифрового прогресса</t>
+  </si>
+  <si>
+    <t>Участие в креативных проектах</t>
+  </si>
+  <si>
+    <t>Поиск идей для улучшений</t>
+  </si>
+  <si>
+    <t>Работа в глобальных проектах</t>
+  </si>
+  <si>
+    <t>Профессиональный коучинг</t>
+  </si>
+  <si>
+    <t>Развитие навыков менторства</t>
+  </si>
+  <si>
+    <t>Проведение коучинг-сессий</t>
+  </si>
+  <si>
+    <t>Участие в научных проектах</t>
+  </si>
+  <si>
+    <t>Участие в стратег. разработках</t>
+  </si>
+  <si>
+    <t>Совершенствовать проф. Навыки</t>
+  </si>
+  <si>
+    <t>Привлечение инновац. решений</t>
+  </si>
+  <si>
+    <t>Участие в м/н конференциях</t>
+  </si>
+  <si>
+    <t>Получение м/н сертификатов</t>
+  </si>
+  <si>
+    <t>Участие в тренингах</t>
+  </si>
+  <si>
+    <t>Повышение квалификации</t>
+  </si>
+  <si>
+    <t>Регулярное обновление знаний</t>
+  </si>
+  <si>
+    <t>Создание инновац. проектов</t>
+  </si>
+  <si>
+    <t>Достижение стратег. целей</t>
+  </si>
+  <si>
+    <t>Изучение современных техн-ий</t>
+  </si>
+  <si>
+    <t>Повышение навыков работы с инновационными инструментами для эффективного проектирования.</t>
+  </si>
+  <si>
+    <t>Обмен опытом с экспертами, расширение профессиональных горизонтов через участие в мировых мероприятиях.</t>
+  </si>
+  <si>
+    <t>Создание и воплощение инновационных и сложных проектов, подтверждение высокого профессионального уровня.</t>
+  </si>
+  <si>
+    <t>Активное освоение и внедрение инновационных технологий для оптимизации бизнес-процессов.</t>
+  </si>
+  <si>
+    <t>Разработка и успешное внедрение новаторских проектов, способствующих развитию компании и отрасли.</t>
+  </si>
+  <si>
+    <t>Регулярное обучение, чтение литературы и участие в образовательных программ для постоянного роста.</t>
+  </si>
+  <si>
+    <t>Внедрение эффективных методов управления временем и задачами для оптимизации результатов.</t>
+  </si>
+  <si>
+    <t>Развитие навыков управления временем и организации задач для повышения эффективности.</t>
+  </si>
+  <si>
+    <t>Развитие коммуникативных навыков и улучшение коллаборации с коллегами для эффективного взаимодействия.</t>
+  </si>
+  <si>
+    <t>Формирование лидерских навыков для эффективного руководства и стратегического развития.</t>
+  </si>
+  <si>
+    <t>Совершенствование управленческих навыков через обучение и практическую реализацию.</t>
+  </si>
+  <si>
+    <t>Активное участие в проектах, способствующих достижению долгосрочных стратегических целей организации.</t>
+  </si>
+  <si>
+    <t>Постоянное обновление рабочих методов и технологий с использованием инновационных подходов.</t>
+  </si>
+  <si>
+    <t>Постоянное расширение технической компетенции через учебу и освоение новых языков программирования.</t>
+  </si>
+  <si>
+    <t>Активное развитие творческих способностей для поиска нестандартных и инновационных решений.</t>
+  </si>
+  <si>
+    <t>Активное участие в креативных проектах и исследованиях для развития творческих навыков.</t>
+  </si>
+  <si>
+    <t>Взаимодействие с творческими секторами и специалистами для обмена опытом и идеями.</t>
+  </si>
+  <si>
+    <t>Сертификация для подтверждения квалификации и расширения возможностей в международном масштабе.</t>
+  </si>
+  <si>
+    <t>Активное участие в международных событиях для обмена опытом и установления профессиональных контактов.</t>
+  </si>
+  <si>
+    <t>Улучшение навыков взаимодействия с представителями различных культур для успешной работы в международной среде.</t>
+  </si>
+  <si>
+    <t>Личностный рост и развитие навыков коучинга для эффективного руководства и менторства.</t>
+  </si>
+  <si>
+    <t>Регулярные сессии для личностного развития и поддержки коллег в достижении своих целей.</t>
+  </si>
+  <si>
+    <t>Активное участие в специализированных образовательных программах для совершенствования коучинговых навыков.</t>
+  </si>
+  <si>
+    <t>Активное участие в тренингах для развития лидерских качеств и эффективного управления командой.</t>
+  </si>
+  <si>
+    <t>Регулярная организация мероприятий для стимулирования творчества и мотивации сотрудников.</t>
+  </si>
+  <si>
+    <t>Систематические обсуждения для повышения эффективности командной работы и решения возникающих вопросов.</t>
+  </si>
+  <si>
+    <t>Постоянное обновление знаний через систематическое чтение профессиональных материалов и участие в научных исследованиях.</t>
+  </si>
+  <si>
+    <t>Активное участие в научных исследованиях для обмена знанийми и актуализации информации в выбранной области.</t>
+  </si>
+  <si>
+    <t>Развитие экспертных знаний и умений через прохождение специализированных образовательных программ.</t>
+  </si>
+  <si>
+    <t>Пройти обучение.</t>
+  </si>
+  <si>
+    <t>Реализовать новый проект.</t>
+  </si>
+  <si>
+    <t>Внести предложения в стратегию.</t>
+  </si>
+  <si>
+    <t>Анализ трендов в отрасли.</t>
+  </si>
+  <si>
+    <t>Разработать план подготовки.</t>
+  </si>
+  <si>
+    <t>Улучшить адаптацию.</t>
+  </si>
+  <si>
+    <t>Улучшить производительность.</t>
+  </si>
+  <si>
+    <t>Развивать навыки.</t>
+  </si>
+  <si>
+    <t>Пройти обучение методикам.</t>
+  </si>
+  <si>
+    <t>Улучшить лидерство.</t>
+  </si>
+  <si>
+    <t>Активное участие в проектах.</t>
+  </si>
+  <si>
+    <t>Реализовать стратегию.</t>
+  </si>
+  <si>
+    <t>Актуализация знаний.</t>
+  </si>
+  <si>
+    <t>Внедрить новшества.</t>
+  </si>
+  <si>
+    <t>Содействовать цифровизации.</t>
+  </si>
+  <si>
+    <t>Участвовать в креативе.</t>
+  </si>
+  <si>
+    <t>Активно предлагать улучшения.</t>
+  </si>
+  <si>
+    <t>Привлекать новации.</t>
+  </si>
+  <si>
+    <t>Принимать участие в конференциях.</t>
+  </si>
+  <si>
+    <t>Участвовать в глобальных задачах.</t>
+  </si>
+  <si>
+    <t>Достичь международных стандартов.</t>
+  </si>
+  <si>
+    <t>Пройти курсы коучинга.</t>
+  </si>
+  <si>
+    <t>Улучшить менторские навыки.</t>
+  </si>
+  <si>
+    <t>Проводить сессии коучинга.</t>
+  </si>
+  <si>
+    <t>Развивать лидерские навыки.</t>
+  </si>
+  <si>
+    <t>Активно участвовать в тренингах.</t>
+  </si>
+  <si>
+    <t>Улучшить работу команды.</t>
+  </si>
+  <si>
+    <t>Участвовать в исследованиях.</t>
+  </si>
+  <si>
+    <t>Развиваться профессионально.</t>
+  </si>
+  <si>
+    <t>Постоянное обновление знаний.</t>
+  </si>
+  <si>
+    <t>Повышение эфф-ти команды</t>
+  </si>
+  <si>
+    <t>Улучшение навыков</t>
   </si>
 </sst>
 </file>
@@ -638,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -651,6 +591,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -935,7 +879,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -949,172 +893,172 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1130,9 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
@@ -1144,142 +1086,142 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1292,68 +1234,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="71" customWidth="1"/>
+    <col min="1" max="1" width="76.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
     <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
+      <c r="A1" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D1" s="3">
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36">
+    <row r="2" spans="1:4" ht="24">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D2" s="3">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36">
+    <row r="3" spans="1:4" ht="24">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D3" s="3">
         <v>45384</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="36">
+    <row r="4" spans="1:4" ht="24">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="3">
         <v>45385</v>
@@ -1361,41 +1304,41 @@
     </row>
     <row r="5" spans="1:4" ht="24">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="3">
         <v>45386</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36">
+    <row r="6" spans="1:4" ht="24">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="3">
         <v>45387</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="36">
+    <row r="7" spans="1:4" ht="24">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="3">
         <v>45388</v>
@@ -1403,83 +1346,83 @@
     </row>
     <row r="8" spans="1:4" ht="24">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="3">
         <v>45389</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="36">
+    <row r="9" spans="1:4" ht="24">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="3">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36">
+    <row r="10" spans="1:4" ht="24">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="3">
         <v>45391</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="36">
+    <row r="11" spans="1:4" ht="24">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D11" s="3">
         <v>45392</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
+    <row r="12" spans="1:4" ht="24">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="3">
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
+    <row r="13" spans="1:4" ht="24">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="3">
         <v>45394</v>
@@ -1487,41 +1430,41 @@
     </row>
     <row r="14" spans="1:4" ht="36">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="3">
         <v>45395</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36">
+    <row r="15" spans="1:4" ht="24">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D15" s="3">
         <v>45396</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="36">
+    <row r="16" spans="1:4" ht="24">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="3">
         <v>45397</v>
@@ -1529,13 +1472,13 @@
     </row>
     <row r="17" spans="1:4" ht="24">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="3">
         <v>45398</v>
@@ -1543,69 +1486,69 @@
     </row>
     <row r="18" spans="1:4" ht="24">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="3">
         <v>45399</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36">
+    <row r="19" spans="1:4" ht="24">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36">
+    <row r="20" spans="1:4" ht="24">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="3">
         <v>45401</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36">
+    <row r="21" spans="1:4" ht="24">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="3">
         <v>45402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="36">
+    <row r="22" spans="1:4" ht="24">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="3">
         <v>45403</v>
@@ -1613,27 +1556,27 @@
     </row>
     <row r="23" spans="1:4" ht="24">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D23" s="3">
         <v>45404</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36">
+    <row r="24" spans="1:4" ht="24">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="3">
         <v>45405</v>
@@ -1641,83 +1584,83 @@
     </row>
     <row r="25" spans="1:4" ht="24">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="3">
         <v>45406</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36">
+    <row r="26" spans="1:4" ht="24">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
+        <v>126</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="3">
         <v>45407</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36">
+    <row r="27" spans="1:4" ht="24">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="3">
         <v>45408</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36">
+    <row r="28" spans="1:4" ht="24">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
+        <v>128</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D28" s="3">
         <v>45409</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="36">
+    <row r="29" spans="1:4" ht="24">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
+        <v>129</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D29" s="3">
         <v>45410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="36">
+    <row r="30" spans="1:4" ht="24">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D30" s="3">
         <v>45411</v>
@@ -1730,415 +1673,256 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="119.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
+      <c r="A2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25">
+      <c r="A3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25">
+      <c r="A4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25">
+      <c r="A5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25">
+      <c r="A7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25">
+      <c r="A8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25">
+      <c r="A9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25">
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25">
+      <c r="A11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="17.25">
+      <c r="A12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25">
+      <c r="A15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25">
+      <c r="A16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
+      <c r="A17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
+      <c r="A19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
+      <c r="A20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
+      <c r="A21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25">
+      <c r="A24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25">
+      <c r="A25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
+      <c r="A26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25">
+      <c r="A27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25">
+      <c r="A28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25">
+      <c r="A29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25">
-      <c r="A17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
-      <c r="A20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25">
-      <c r="A23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25">
-      <c r="A25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25">
-      <c r="A27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25">
-      <c r="A28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25">
-      <c r="A29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
-      <c r="A30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25">
-      <c r="A31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25">
-      <c r="A32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25">
-      <c r="A33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25">
-      <c r="A34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25">
-      <c r="A35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25">
-      <c r="A36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25">
-      <c r="A37" s="1" t="s">
+      <c r="A30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25">
-      <c r="A38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25">
-      <c r="A39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25">
-      <c r="A42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25">
-      <c r="A43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25">
-      <c r="A44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25">
-      <c r="A46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25">
-      <c r="A47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25">
-      <c r="A48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25">
-      <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2151,212 +1935,212 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B18"/>
+      <selection activeCell="A19" sqref="A19:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\hackathon_alfa\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="idps" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="goals" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="tasks" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="comments" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="idps" sheetId="2" r:id="rId2"/>
+    <sheet name="goals" sheetId="3" r:id="rId3"/>
+    <sheet name="tasks" sheetId="4" r:id="rId4"/>
+    <sheet name="comments" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,527 +28,511 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="163">
-  <si>
-    <t xml:space="preserve">AlbertLunnyExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Альберт Лунный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кибернавигатор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706542648092_3x273nb.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnnaPolarQuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анна Полярная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Космофиз-Кибернетик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706542814091_8CiopUQ.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArtemisNightVoyager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артемис Ночная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Киберархеолог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706542953184_UxLoWIn.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ValentinaGalacticNavigator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валентина Галактическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гип. Дизайнер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543027736_Rn2yUGt.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VladimirSolarPioneer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимир Солнечный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Астроинформатик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543195895_HDxNBv7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DmitryParallelAdventurer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дмитрий Параллельный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Квант. Биотех</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543332900_tQDtRzk.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IrinaStargazer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ирина Звездочкина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гип. Аналитик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543410387_UapnfNs.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OksanaPlasmaGalaxySeeker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оксана Плазменная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Инж. Кв. Техн.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543538599_wTCeeLk.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FedorMistyEclipseSeeker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Федор Туманный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вирт. Архитектор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543594907_qSuFUj5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElsaZenithCelestialExplorer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эльза Зенитная</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Магн. Криптогр.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_photos/1706543920006_i0OTdlu.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архитектор-Путь к Развитию</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курс в Будущее</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оптимизация Навыков и Знаний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В работе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шаги к Лидерству и Успеху</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие в Современных Трендах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Притягивание Идей и Инноваций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Международное Проф. Развитие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коуч-Компетентность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие Навыков Управления</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Интеллектуальное Развитие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не выполнен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Овладение новыми технологиями</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повышение навыков работы с инновационными инструментами для эффективного проектирования.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание инновац. проектов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обмен опытом с экспертами, расширение профессиональных горизонтов через участие в мировых мероприятиях.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в стратег. разработках</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание и воплощение инновационных и сложных проектов, подтверждение высокого профессионального уровня.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изучение трендов в индустрии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное освоение и внедрение инновационных технологий для оптимизации бизнес-процессов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подготовка к будущим вызовам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка и успешное внедрение новаторских проектов, способствующих развитию компании и отрасли.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие навыков адаптации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регулярное обучение, чтение литературы и участие в образовательных программ для постоянного роста.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повышение эффективности работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внедрение эффективных методов управления временем и задачами для оптимизации результатов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Совершенствовать проф. Навыки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие навыков управления временем и организации задач для повышения эффективности.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обучение современным методикам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие коммуникативных навыков и улучшение коллаборации с коллегами для эффективного взаимодействия.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие лидерских качеств</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование лидерских навыков для эффективного руководства и стратегического развития.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в управлении проектами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Совершенствование управленческих навыков через обучение и практическую реализацию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Достижение стратег. целей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в проектах, способствующих достижению долгосрочных стратегических целей организации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изучение современных техн-ий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постоянное обновление рабочих методов и технологий с использованием инновационных подходов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внедрение инноваций в работу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в профессиональных сообществах и форумах по новым технологиям: Обмен опытом и знаниями в рамках активного участия в профессиональных сетях и форумах.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поддержка цифрового прогресса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постоянное расширение технической компетенции через учебу и освоение новых языков программирования.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в креативных проектах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное развитие творческих способностей для поиска нестандартных и инновационных решений.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поиск идей для улучшений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в креативных проектах и исследованиях для развития творческих навыков.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привлечение инновац. решений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взаимодействие с творческими секторами и специалистами для обмена опытом и идеями.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в м/н конференциях</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификация для подтверждения квалификации и расширения возможностей в международном масштабе.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работа в глобальных проектах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в международных событиях для обмена опытом и установления профессиональных контактов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Получение м/н сертификатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшение навыков взаимодействия с представителями различных культур для успешной работы в международной среде.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Профессиональный коучинг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Личностный рост и развитие навыков коучинга для эффективного руководства и менторства.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие навыков менторства</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регулярные сессии для личностного развития и поддержки коллег в достижении своих целей.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проведение коучинг-сессий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в специализированных образовательных программах для совершенствования коучинговых навыков.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшение навыков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в тренингах для развития лидерских качеств и эффективного управления командой.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в тренингах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регулярная организация мероприятий для стимулирования творчества и мотивации сотрудников.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повышение эфф-ти команды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Систематические обсуждения для повышения эффективности командной работы и решения возникающих вопросов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в научных проектах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постоянное обновление знаний через систематическое чтение профессиональных материалов и участие в научных исследованиях.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повышение квалификации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в научных исследованиях для обмена знанийми и актуализации информации в выбранной области.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регулярное обновление знаний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие экспертных знаний и умений через прохождение специализированных образовательных программ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пройти обучение.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реализовать новый проект.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внести предложения в стратегию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анализ трендов в отрасли.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработать план подготовки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшить адаптацию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшить производительность.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развивать навыки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пройти обучение методикам.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшить лидерство.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в проектах.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реализовать стратегию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Актуализация знаний.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внедрить новшества.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Содействовать цифровизации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участвовать в креативе.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активно предлагать улучшения.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Привлекать новации.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Принимать участие в конференциях.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участвовать в глобальных задачах.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Достичь международных стандартов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пройти курсы коучинга.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшить менторские навыки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проводить сессии коучинга.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развивать лидерские навыки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активно участвовать в тренингах.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Улучшить работу команды.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участвовать в исследованиях.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развиваться профессионально.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Постоянное обновление знаний.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ты уже на пути к овладению передовыми технологиями проектирования! Каждый шаг приближает тебя к новым вершинам технического мастерства.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в международных конференциях и семинарах – это твой билет в мировое сообщество профессионалов. Ты создаешь свою карту успеха!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка и успешная реализация проекта высокой сложности – это твой след в истории инноваций. Твоя решимость ведет к великим достижениям!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изучение и внедрение новых технологий – твоя ключевая роль в развитии отрасли. Ты открываешь двери к будущему с помощью современных решений!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создание и ведение инновационного проекта – ты не просто следишь за трендами, ты создаешь их! Твоя творческая энергия не знает границ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Твое стремление к постоянному обновлению навыков – это залог твоего успеха. Ты как источник, который никогда не иссякает!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Повышение профессиональной эффективности – твоя миссия. Твои результаты – это не просто цифры, это искусство достижения великих высот!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Овладение методами временного управления – ключ к гармонии между работой и личной жизнью. Ты строишь устойчивый фундамент для своего успеха.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Усовершенствование навыков коммуникации – ты как магистр слова. Твоя уверенность и открытость создают идеальную атмосферу для совместной работы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие лидерских качеств – это твой путь к вдохновению команды. Ты формируешь влияние и принимаешь стратегические решения с уверенностью.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в тренингах и мастер-классах – ты как ученик волшебника. Твои новые знания – ключ к великим изменениям в управлении персоналом.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реализация проектов для достижения стратегических целей – ты создаешь не просто проекты, а мосты к будущему успеху компании. Твоя цель – вдохновляющая!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изучение и внедрение инновационных технологий – ты на передовой индустрии. Твои шаги определяют направление инновационных волн!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активное участие в профессиональных сообществах – ты не просто член, ты лидер в мире новых технологий. Твоя сеть – ключ к бескрайним возможностям!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Регулярное обучение новым языкам программирования – ты создаешь свой код успеха. Твоя техническая грамотность – твоя сила.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие креативности и способности к генерации нестандартных идей – ты как архитектор виртуальных миров. Твои идеи – магия, меняющая реальность.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Участие в творческих проектах и исследованиях – ты путешественник в мире идей. Твоя страсть к творчеству – двигатель инноваций.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сотрудничество с творческими индустриями – ты объединяешь миры технологий и творчества. Твое сотрудничество – ключ к синергии идей.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="164">
+  <si>
+    <t>AlbertLunnyExplorer</t>
+  </si>
+  <si>
+    <t>Альберт Лунный</t>
+  </si>
+  <si>
+    <t>Кибернавигатор</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>user_photos/1706542648092_3x273nb.png</t>
+  </si>
+  <si>
+    <t>AnnaPolarQuest</t>
+  </si>
+  <si>
+    <t>Анна Полярная</t>
+  </si>
+  <si>
+    <t>Космофиз-Кибернетик</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>user_photos/1706542814091_8CiopUQ.png</t>
+  </si>
+  <si>
+    <t>ArtemisNightVoyager</t>
+  </si>
+  <si>
+    <t>Артемис Ночная</t>
+  </si>
+  <si>
+    <t>Киберархеолог</t>
+  </si>
+  <si>
+    <t>user_photos/1706542953184_UxLoWIn.png</t>
+  </si>
+  <si>
+    <t>ValentinaGalacticNavigator</t>
+  </si>
+  <si>
+    <t>Валентина Галактическая</t>
+  </si>
+  <si>
+    <t>Гип. Дизайнер</t>
+  </si>
+  <si>
+    <t>user_photos/1706543027736_Rn2yUGt.png</t>
+  </si>
+  <si>
+    <t>VladimirSolarPioneer</t>
+  </si>
+  <si>
+    <t>Владимир Солнечный</t>
+  </si>
+  <si>
+    <t>Астроинформатик</t>
+  </si>
+  <si>
+    <t>user_photos/1706543195895_HDxNBv7.png</t>
+  </si>
+  <si>
+    <t>DmitryParallelAdventurer</t>
+  </si>
+  <si>
+    <t>Дмитрий Параллельный</t>
+  </si>
+  <si>
+    <t>Квант. Биотех</t>
+  </si>
+  <si>
+    <t>user_photos/1706543332900_tQDtRzk.png</t>
+  </si>
+  <si>
+    <t>IrinaStargazer</t>
+  </si>
+  <si>
+    <t>Ирина Звездочкина</t>
+  </si>
+  <si>
+    <t>Гип. Аналитик</t>
+  </si>
+  <si>
+    <t>user_photos/1706543410387_UapnfNs.png</t>
+  </si>
+  <si>
+    <t>OksanaPlasmaGalaxySeeker</t>
+  </si>
+  <si>
+    <t>Оксана Плазменная</t>
+  </si>
+  <si>
+    <t>Инж. Кв. Техн.</t>
+  </si>
+  <si>
+    <t>user_photos/1706543538599_wTCeeLk.png</t>
+  </si>
+  <si>
+    <t>FedorMistyEclipseSeeker</t>
+  </si>
+  <si>
+    <t>Федор Туманный</t>
+  </si>
+  <si>
+    <t>Вирт. Архитектор</t>
+  </si>
+  <si>
+    <t>user_photos/1706543594907_qSuFUj5.png</t>
+  </si>
+  <si>
+    <t>ElsaZenithCelestialExplorer</t>
+  </si>
+  <si>
+    <t>Эльза Зенитная</t>
+  </si>
+  <si>
+    <t>Магн. Криптогр.</t>
+  </si>
+  <si>
+    <t>user_photos/1706543920006_i0OTdlu.png</t>
+  </si>
+  <si>
+    <t>Архитектор-Путь к Развитию</t>
+  </si>
+  <si>
+    <t>Выполнен</t>
+  </si>
+  <si>
+    <t>Курс в Будущее</t>
+  </si>
+  <si>
+    <t>Оптимизация Навыков и Знаний</t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
+    <t>Шаги к Лидерству и Успеху</t>
+  </si>
+  <si>
+    <t>Развитие в Современных Трендах</t>
+  </si>
+  <si>
+    <t>Притягивание Идей и Инноваций</t>
+  </si>
+  <si>
+    <t>Международное Проф. Развитие</t>
+  </si>
+  <si>
+    <t>Коуч-Компетентность</t>
+  </si>
+  <si>
+    <t>Развитие Навыков Управления</t>
+  </si>
+  <si>
+    <t>Интеллектуальное Развитие</t>
+  </si>
+  <si>
+    <t>Не выполнен</t>
+  </si>
+  <si>
+    <t>Овладение новыми технологиями</t>
+  </si>
+  <si>
+    <t>Повышение навыков работы с инновационными инструментами для эффективного проектирования.</t>
+  </si>
+  <si>
+    <t>Создание инновац. проектов</t>
+  </si>
+  <si>
+    <t>Обмен опытом с экспертами, расширение профессиональных горизонтов через участие в мировых мероприятиях.</t>
+  </si>
+  <si>
+    <t>Участие в стратег. разработках</t>
+  </si>
+  <si>
+    <t>Создание и воплощение инновационных и сложных проектов, подтверждение высокого профессионального уровня.</t>
+  </si>
+  <si>
+    <t>Изучение трендов в индустрии</t>
+  </si>
+  <si>
+    <t>Активное освоение и внедрение инновационных технологий для оптимизации бизнес-процессов.</t>
+  </si>
+  <si>
+    <t>Подготовка к будущим вызовам</t>
+  </si>
+  <si>
+    <t>Разработка и успешное внедрение новаторских проектов, способствующих развитию компании и отрасли.</t>
+  </si>
+  <si>
+    <t>Развитие навыков адаптации</t>
+  </si>
+  <si>
+    <t>Регулярное обучение, чтение литературы и участие в образовательных программ для постоянного роста.</t>
+  </si>
+  <si>
+    <t>Повышение эффективности работы</t>
+  </si>
+  <si>
+    <t>Внедрение эффективных методов управления временем и задачами для оптимизации результатов.</t>
+  </si>
+  <si>
+    <t>Совершенствовать проф. Навыки</t>
+  </si>
+  <si>
+    <t>Развитие навыков управления временем и организации задач для повышения эффективности.</t>
+  </si>
+  <si>
+    <t>Обучение современным методикам</t>
+  </si>
+  <si>
+    <t>Развитие коммуникативных навыков и улучшение коллаборации с коллегами для эффективного взаимодействия.</t>
+  </si>
+  <si>
+    <t>Развитие лидерских качеств</t>
+  </si>
+  <si>
+    <t>Формирование лидерских навыков для эффективного руководства и стратегического развития.</t>
+  </si>
+  <si>
+    <t>Участие в управлении проектами</t>
+  </si>
+  <si>
+    <t>Совершенствование управленческих навыков через обучение и практическую реализацию.</t>
+  </si>
+  <si>
+    <t>Достижение стратег. целей</t>
+  </si>
+  <si>
+    <t>Активное участие в проектах, способствующих достижению долгосрочных стратегических целей организации.</t>
+  </si>
+  <si>
+    <t>Изучение современных техн-ий</t>
+  </si>
+  <si>
+    <t>Постоянное обновление рабочих методов и технологий с использованием инновационных подходов.</t>
+  </si>
+  <si>
+    <t>Внедрение инноваций в работу</t>
+  </si>
+  <si>
+    <t>Активное участие в профессиональных сообществах и форумах по новым технологиям: Обмен опытом и знаниями в рамках активного участия в профессиональных сетях и форумах.</t>
+  </si>
+  <si>
+    <t>Поддержка цифрового прогресса</t>
+  </si>
+  <si>
+    <t>Постоянное расширение технической компетенции через учебу и освоение новых языков программирования.</t>
+  </si>
+  <si>
+    <t>Участие в креативных проектах</t>
+  </si>
+  <si>
+    <t>Активное развитие творческих способностей для поиска нестандартных и инновационных решений.</t>
+  </si>
+  <si>
+    <t>Поиск идей для улучшений</t>
+  </si>
+  <si>
+    <t>Активное участие в креативных проектах и исследованиях для развития творческих навыков.</t>
+  </si>
+  <si>
+    <t>Привлечение инновац. решений</t>
+  </si>
+  <si>
+    <t>Взаимодействие с творческими секторами и специалистами для обмена опытом и идеями.</t>
+  </si>
+  <si>
+    <t>Участие в м/н конференциях</t>
+  </si>
+  <si>
+    <t>Сертификация для подтверждения квалификации и расширения возможностей в международном масштабе.</t>
+  </si>
+  <si>
+    <t>Работа в глобальных проектах</t>
+  </si>
+  <si>
+    <t>Активное участие в международных событиях для обмена опытом и установления профессиональных контактов.</t>
+  </si>
+  <si>
+    <t>Получение м/н сертификатов</t>
+  </si>
+  <si>
+    <t>Улучшение навыков взаимодействия с представителями различных культур для успешной работы в международной среде.</t>
+  </si>
+  <si>
+    <t>Профессиональный коучинг</t>
+  </si>
+  <si>
+    <t>Личностный рост и развитие навыков коучинга для эффективного руководства и менторства.</t>
+  </si>
+  <si>
+    <t>Развитие навыков менторства</t>
+  </si>
+  <si>
+    <t>Регулярные сессии для личностного развития и поддержки коллег в достижении своих целей.</t>
+  </si>
+  <si>
+    <t>Проведение коучинг-сессий</t>
+  </si>
+  <si>
+    <t>Активное участие в специализированных образовательных программах для совершенствования коучинговых навыков.</t>
+  </si>
+  <si>
+    <t>Улучшение навыков</t>
+  </si>
+  <si>
+    <t>Активное участие в тренингах для развития лидерских качеств и эффективного управления командой.</t>
+  </si>
+  <si>
+    <t>Участие в тренингах</t>
+  </si>
+  <si>
+    <t>Регулярная организация мероприятий для стимулирования творчества и мотивации сотрудников.</t>
+  </si>
+  <si>
+    <t>Повышение эфф-ти команды</t>
+  </si>
+  <si>
+    <t>Систематические обсуждения для повышения эффективности командной работы и решения возникающих вопросов.</t>
+  </si>
+  <si>
+    <t>Участие в научных проектах</t>
+  </si>
+  <si>
+    <t>Постоянное обновление знаний через систематическое чтение профессиональных материалов и участие в научных исследованиях.</t>
+  </si>
+  <si>
+    <t>Повышение квалификации</t>
+  </si>
+  <si>
+    <t>Активное участие в научных исследованиях для обмена знанийми и актуализации информации в выбранной области.</t>
+  </si>
+  <si>
+    <t>Регулярное обновление знаний</t>
+  </si>
+  <si>
+    <t>Развитие экспертных знаний и умений через прохождение специализированных образовательных программ.</t>
+  </si>
+  <si>
+    <t>Пройти обучение.</t>
+  </si>
+  <si>
+    <t>Реализовать новый проект.</t>
+  </si>
+  <si>
+    <t>Внести предложения в стратегию.</t>
+  </si>
+  <si>
+    <t>Анализ трендов в отрасли.</t>
+  </si>
+  <si>
+    <t>Разработать план подготовки.</t>
+  </si>
+  <si>
+    <t>Улучшить адаптацию.</t>
+  </si>
+  <si>
+    <t>Улучшить производительность.</t>
+  </si>
+  <si>
+    <t>Развивать навыки.</t>
+  </si>
+  <si>
+    <t>Пройти обучение методикам.</t>
+  </si>
+  <si>
+    <t>Улучшить лидерство.</t>
+  </si>
+  <si>
+    <t>Активное участие в проектах.</t>
+  </si>
+  <si>
+    <t>Реализовать стратегию.</t>
+  </si>
+  <si>
+    <t>Актуализация знаний.</t>
+  </si>
+  <si>
+    <t>Внедрить новшества.</t>
+  </si>
+  <si>
+    <t>Содействовать цифровизации.</t>
+  </si>
+  <si>
+    <t>Участвовать в креативе.</t>
+  </si>
+  <si>
+    <t>Активно предлагать улучшения.</t>
+  </si>
+  <si>
+    <t>Привлекать новации.</t>
+  </si>
+  <si>
+    <t>Принимать участие в конференциях.</t>
+  </si>
+  <si>
+    <t>Участвовать в глобальных задачах.</t>
+  </si>
+  <si>
+    <t>Достичь международных стандартов.</t>
+  </si>
+  <si>
+    <t>Пройти курсы коучинга.</t>
+  </si>
+  <si>
+    <t>Улучшить менторские навыки.</t>
+  </si>
+  <si>
+    <t>Проводить сессии коучинга.</t>
+  </si>
+  <si>
+    <t>Развивать лидерские навыки.</t>
+  </si>
+  <si>
+    <t>Активно участвовать в тренингах.</t>
+  </si>
+  <si>
+    <t>Улучшить работу команды.</t>
+  </si>
+  <si>
+    <t>Участвовать в исследованиях.</t>
+  </si>
+  <si>
+    <t>Развиваться профессионально.</t>
+  </si>
+  <si>
+    <t>Постоянное обновление знаний.</t>
+  </si>
+  <si>
+    <t>Ты уже на пути к овладению передовыми технологиями проектирования! Каждый шаг приближает тебя к новым вершинам технического мастерства.</t>
+  </si>
+  <si>
+    <t>Участие в международных конференциях и семинарах – это твой билет в мировое сообщество профессионалов. Ты создаешь свою карту успеха!</t>
+  </si>
+  <si>
+    <t>Разработка и успешная реализация проекта высокой сложности – это твой след в истории инноваций. Твоя решимость ведет к великим достижениям!</t>
+  </si>
+  <si>
+    <t>Изучение и внедрение новых технологий – твоя ключевая роль в развитии отрасли. Ты открываешь двери к будущему с помощью современных решений!</t>
+  </si>
+  <si>
+    <t>Создание и ведение инновационного проекта – ты не просто следишь за трендами, ты создаешь их! Твоя творческая энергия не знает границ.</t>
+  </si>
+  <si>
+    <t>Твое стремление к постоянному обновлению навыков – это залог твоего успеха. Ты как источник, который никогда не иссякает!</t>
+  </si>
+  <si>
+    <t>Повышение профессиональной эффективности – твоя миссия. Твои результаты – это не просто цифры, это искусство достижения великих высот!</t>
+  </si>
+  <si>
+    <t>Овладение методами временного управления – ключ к гармонии между работой и личной жизнью. Ты строишь устойчивый фундамент для своего успеха.</t>
+  </si>
+  <si>
+    <t>Усовершенствование навыков коммуникации – ты как магистр слова. Твоя уверенность и открытость создают идеальную атмосферу для совместной работы.</t>
+  </si>
+  <si>
+    <t>Развитие лидерских качеств – это твой путь к вдохновению команды. Ты формируешь влияние и принимаешь стратегические решения с уверенностью.</t>
+  </si>
+  <si>
+    <t>Участие в тренингах и мастер-классах – ты как ученик волшебника. Твои новые знания – ключ к великим изменениям в управлении персоналом.</t>
+  </si>
+  <si>
+    <t>Реализация проектов для достижения стратегических целей – ты создаешь не просто проекты, а мосты к будущему успеху компании. Твоя цель – вдохновляющая!</t>
+  </si>
+  <si>
+    <t>Изучение и внедрение инновационных технологий – ты на передовой индустрии. Твои шаги определяют направление инновационных волн!</t>
+  </si>
+  <si>
+    <t>Активное участие в профессиональных сообществах – ты не просто член, ты лидер в мире новых технологий. Твоя сеть – ключ к бескрайним возможностям!</t>
+  </si>
+  <si>
+    <t>Регулярное обучение новым языкам программирования – ты создаешь свой код успеха. Твоя техническая грамотность – твоя сила.</t>
+  </si>
+  <si>
+    <t>Развитие креативности и способности к генерации нестандартных идей – ты как архитектор виртуальных миров. Твои идеи – магия, меняющая реальность.</t>
+  </si>
+  <si>
+    <t>Участие в творческих проектах и исследованиях – ты путешественник в мире идей. Твоя страсть к творчеству – двигатель инноваций.</t>
+  </si>
+  <si>
+    <t>Сотрудничество с творческими индустриями – ты объединяешь миры технологий и творчества. Твое сотрудничество – ключ к синергии идей.</t>
+  </si>
+  <si>
+    <t>Отменен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -561,7 +549,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -582,6 +570,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -592,7 +586,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -600,77 +594,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -729,32 +683,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF374151"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="86.14"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="86.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,14 +992,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,14 +1009,14 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -798,14 +1026,14 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -815,14 +1043,14 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -832,14 +1060,14 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -849,14 +1077,14 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -866,14 +1094,14 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -883,14 +1111,14 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -900,14 +1128,14 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -917,44 +1145,36 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="17.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="77.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.29"/>
+    <col min="1" max="1" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -968,7 +1188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -982,7 +1202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -996,7 +1216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1010,21 +1230,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1038,7 +1258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1048,11 +1268,11 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1066,7 +1286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1080,7 +1300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1095,36 +1315,26 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.14"/>
+    <col min="1" max="1" width="76.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="24">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
@@ -1134,11 +1344,11 @@
       <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="6">
         <v>45382</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="24">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1148,11 +1358,11 @@
       <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>45383</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="24">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1162,11 +1372,11 @@
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>45384</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="24">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1176,11 +1386,11 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>45385</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="24">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1190,11 +1400,11 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>45386</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="24">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -1204,11 +1414,11 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>45387</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="24">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1218,11 +1428,11 @@
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>45388</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="24">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -1232,11 +1442,11 @@
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>45389</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="24">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1246,11 +1456,11 @@
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="24">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -1260,11 +1470,11 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>45391</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="24">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1274,11 +1484,11 @@
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>45392</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="24">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1288,11 +1498,11 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>45393</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="24">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -1302,11 +1512,11 @@
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>45394</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="36">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1316,11 +1526,11 @@
       <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>45395</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="24">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -1330,11 +1540,11 @@
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>45396</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" ht="24">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -1344,11 +1554,11 @@
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>45397</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" ht="24">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -1358,11 +1568,11 @@
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>45398</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" ht="24">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -1372,11 +1582,11 @@
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>45399</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" ht="24">
       <c r="A19" s="1" t="s">
         <v>91</v>
       </c>
@@ -1386,11 +1596,11 @@
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="6">
         <v>45400</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="24">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -1400,11 +1610,11 @@
       <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="6">
         <v>45401</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="24">
       <c r="A21" s="1" t="s">
         <v>95</v>
       </c>
@@ -1414,11 +1624,11 @@
       <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="6">
         <v>45402</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="24">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -1428,11 +1638,11 @@
       <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="6">
         <v>45403</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="24">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -1442,11 +1652,11 @@
       <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="6">
         <v>45404</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="24">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1456,11 +1666,11 @@
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="6">
         <v>45405</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="24">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -1470,11 +1680,11 @@
       <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="6">
         <v>45406</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="24">
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
@@ -1484,11 +1694,11 @@
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="6">
         <v>45407</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" ht="24">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -1498,11 +1708,11 @@
       <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="6">
         <v>45408</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" ht="24">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1512,11 +1722,11 @@
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="6">
         <v>45409</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" ht="24">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -1526,11 +1736,11 @@
       <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="6">
         <v>45410</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" ht="24">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -1540,39 +1750,31 @@
       <c r="C30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="6">
         <v>45411</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="107.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.71"/>
+    <col min="1" max="1" width="107.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="7" t="s">
         <v>115</v>
       </c>
@@ -1580,7 +1782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="7" t="s">
         <v>116</v>
       </c>
@@ -1588,7 +1790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="7" t="s">
         <v>117</v>
       </c>
@@ -1596,7 +1798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="7" t="s">
         <v>118</v>
       </c>
@@ -1604,7 +1806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="7" t="s">
         <v>119</v>
       </c>
@@ -1612,7 +1814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="7" t="s">
         <v>120</v>
       </c>
@@ -1620,7 +1822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="7" t="s">
         <v>121</v>
       </c>
@@ -1628,7 +1830,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="7" t="s">
         <v>122</v>
       </c>
@@ -1636,7 +1838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="7" t="s">
         <v>123</v>
       </c>
@@ -1644,7 +1846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="7" t="s">
         <v>124</v>
       </c>
@@ -1652,7 +1854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="7" t="s">
         <v>125</v>
       </c>
@@ -1660,7 +1862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="7" t="s">
         <v>126</v>
       </c>
@@ -1668,7 +1870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
         <v>127</v>
       </c>
@@ -1676,7 +1878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="7" t="s">
         <v>128</v>
       </c>
@@ -1684,7 +1886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="17.25">
       <c r="A15" s="7" t="s">
         <v>129</v>
       </c>
@@ -1692,7 +1894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="7" t="s">
         <v>130</v>
       </c>
@@ -1700,7 +1902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="7" t="s">
         <v>131</v>
       </c>
@@ -1708,7 +1910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="7" t="s">
         <v>132</v>
       </c>
@@ -1716,7 +1918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="7" t="s">
         <v>133</v>
       </c>
@@ -1724,7 +1926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="7" t="s">
         <v>134</v>
       </c>
@@ -1732,7 +1934,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="7" t="s">
         <v>135</v>
       </c>
@@ -1740,7 +1942,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="7" t="s">
         <v>136</v>
       </c>
@@ -1748,7 +1950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="7" t="s">
         <v>137</v>
       </c>
@@ -1756,7 +1958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="7" t="s">
         <v>138</v>
       </c>
@@ -1764,7 +1966,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="17.25">
       <c r="A25" s="7" t="s">
         <v>139</v>
       </c>
@@ -1772,7 +1974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="7" t="s">
         <v>140</v>
       </c>
@@ -1780,7 +1982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" ht="17.25">
       <c r="A27" s="7" t="s">
         <v>141</v>
       </c>
@@ -1788,7 +1990,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="7" t="s">
         <v>142</v>
       </c>
@@ -1796,7 +1998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" ht="17.25">
       <c r="A29" s="7" t="s">
         <v>143</v>
       </c>
@@ -1804,7 +2006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="7" t="s">
         <v>144</v>
       </c>
@@ -1813,35 +2015,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.99"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -1852,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
@@ -1863,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>147</v>
       </c>
@@ -1874,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
@@ -1885,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -1896,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -1907,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -1918,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -1929,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>153</v>
       </c>
@@ -1940,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
@@ -1951,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -1962,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -1973,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="1" t="s">
         <v>157</v>
       </c>
@@ -1984,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -1995,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>159</v>
       </c>
@@ -2006,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>160</v>
       </c>
@@ -2017,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
@@ -2028,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>162</v>
       </c>
@@ -2040,12 +2234,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="tasks" sheetId="4" r:id="rId4"/>
     <sheet name="comments" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,9 +33,6 @@
     <t>AlbertLunnyExplorer</t>
   </si>
   <si>
-    <t>Альберт Лунный</t>
-  </si>
-  <si>
     <t>Кибернавигатор</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>AnnaPolarQuest</t>
   </si>
   <si>
-    <t>Анна Полярная</t>
-  </si>
-  <si>
     <t>Космофиз-Кибернетик</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>ArtemisNightVoyager</t>
   </si>
   <si>
-    <t>Артемис Ночная</t>
-  </si>
-  <si>
     <t>Киберархеолог</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>ValentinaGalacticNavigator</t>
   </si>
   <si>
-    <t>Валентина Галактическая</t>
-  </si>
-  <si>
     <t>Гип. Дизайнер</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t>VladimirSolarPioneer</t>
   </si>
   <si>
-    <t>Владимир Солнечный</t>
-  </si>
-  <si>
     <t>Астроинформатик</t>
   </si>
   <si>
@@ -99,9 +84,6 @@
     <t>DmitryParallelAdventurer</t>
   </si>
   <si>
-    <t>Дмитрий Параллельный</t>
-  </si>
-  <si>
     <t>Квант. Биотех</t>
   </si>
   <si>
@@ -111,9 +93,6 @@
     <t>IrinaStargazer</t>
   </si>
   <si>
-    <t>Ирина Звездочкина</t>
-  </si>
-  <si>
     <t>Гип. Аналитик</t>
   </si>
   <si>
@@ -123,9 +102,6 @@
     <t>OksanaPlasmaGalaxySeeker</t>
   </si>
   <si>
-    <t>Оксана Плазменная</t>
-  </si>
-  <si>
     <t>Инж. Кв. Техн.</t>
   </si>
   <si>
@@ -135,9 +111,6 @@
     <t>FedorMistyEclipseSeeker</t>
   </si>
   <si>
-    <t>Федор Туманный</t>
-  </si>
-  <si>
     <t>Вирт. Архитектор</t>
   </si>
   <si>
@@ -147,9 +120,6 @@
     <t>ElsaZenithCelestialExplorer</t>
   </si>
   <si>
-    <t>Эльза Зенитная</t>
-  </si>
-  <si>
     <t>Магн. Криптогр.</t>
   </si>
   <si>
@@ -204,15 +174,9 @@
     <t>Создание инновац. проектов</t>
   </si>
   <si>
-    <t>Обмен опытом с экспертами, расширение профессиональных горизонтов через участие в мировых мероприятиях.</t>
-  </si>
-  <si>
     <t>Участие в стратег. разработках</t>
   </si>
   <si>
-    <t>Создание и воплощение инновационных и сложных проектов, подтверждение высокого профессионального уровня.</t>
-  </si>
-  <si>
     <t>Изучение трендов в индустрии</t>
   </si>
   <si>
@@ -246,9 +210,6 @@
     <t>Обучение современным методикам</t>
   </si>
   <si>
-    <t>Развитие коммуникативных навыков и улучшение коллаборации с коллегами для эффективного взаимодействия.</t>
-  </si>
-  <si>
     <t>Развитие лидерских качеств</t>
   </si>
   <si>
@@ -264,9 +225,6 @@
     <t>Достижение стратег. целей</t>
   </si>
   <si>
-    <t>Активное участие в проектах, способствующих достижению долгосрочных стратегических целей организации.</t>
-  </si>
-  <si>
     <t>Изучение современных техн-ий</t>
   </si>
   <si>
@@ -276,9 +234,6 @@
     <t>Внедрение инноваций в работу</t>
   </si>
   <si>
-    <t>Активное участие в профессиональных сообществах и форумах по новым технологиям: Обмен опытом и знаниями в рамках активного участия в профессиональных сетях и форумах.</t>
-  </si>
-  <si>
     <t>Поддержка цифрового прогресса</t>
   </si>
   <si>
@@ -312,15 +267,9 @@
     <t>Работа в глобальных проектах</t>
   </si>
   <si>
-    <t>Активное участие в международных событиях для обмена опытом и установления профессиональных контактов.</t>
-  </si>
-  <si>
     <t>Получение м/н сертификатов</t>
   </si>
   <si>
-    <t>Улучшение навыков взаимодействия с представителями различных культур для успешной работы в международной среде.</t>
-  </si>
-  <si>
     <t>Профессиональный коучинг</t>
   </si>
   <si>
@@ -336,9 +285,6 @@
     <t>Проведение коучинг-сессий</t>
   </si>
   <si>
-    <t>Активное участие в специализированных образовательных программах для совершенствования коучинговых навыков.</t>
-  </si>
-  <si>
     <t>Улучшение навыков</t>
   </si>
   <si>
@@ -354,21 +300,12 @@
     <t>Повышение эфф-ти команды</t>
   </si>
   <si>
-    <t>Систематические обсуждения для повышения эффективности командной работы и решения возникающих вопросов.</t>
-  </si>
-  <si>
     <t>Участие в научных проектах</t>
   </si>
   <si>
-    <t>Постоянное обновление знаний через систематическое чтение профессиональных материалов и участие в научных исследованиях.</t>
-  </si>
-  <si>
     <t>Повышение квалификации</t>
   </si>
   <si>
-    <t>Активное участие в научных исследованиях для обмена знанийми и актуализации информации в выбранной области.</t>
-  </si>
-  <si>
     <t>Регулярное обновление знаний</t>
   </si>
   <si>
@@ -429,15 +366,6 @@
     <t>Привлекать новации.</t>
   </si>
   <si>
-    <t>Принимать участие в конференциях.</t>
-  </si>
-  <si>
-    <t>Участвовать в глобальных задачах.</t>
-  </si>
-  <si>
-    <t>Достичь международных стандартов.</t>
-  </si>
-  <si>
     <t>Пройти курсы коучинга.</t>
   </si>
   <si>
@@ -450,9 +378,6 @@
     <t>Развивать лидерские навыки.</t>
   </si>
   <si>
-    <t>Активно участвовать в тренингах.</t>
-  </si>
-  <si>
     <t>Улучшить работу команды.</t>
   </si>
   <si>
@@ -520,6 +445,81 @@
   </si>
   <si>
     <t>Отменен</t>
+  </si>
+  <si>
+    <t>Альберт Владимирович Лунный</t>
+  </si>
+  <si>
+    <t>Владимир  Владимирович  Солнечный</t>
+  </si>
+  <si>
+    <t>Федор  Владимирович  Туманный</t>
+  </si>
+  <si>
+    <t>Артемис  Владимирович Ночная</t>
+  </si>
+  <si>
+    <t>Анна Сергеевна Полярная</t>
+  </si>
+  <si>
+    <t>Валентина Сергеевна Галактическая</t>
+  </si>
+  <si>
+    <t>Ирина Сергеевна Звездочкина</t>
+  </si>
+  <si>
+    <t>Оксана Сергеевна Плазменная</t>
+  </si>
+  <si>
+    <t>Эльза Сергеевна Зенитная</t>
+  </si>
+  <si>
+    <t>Дмитрий Владимирович Параллельный</t>
+  </si>
+  <si>
+    <t>Обмен опытом с экспертами, расширение профессиональных горизонтов.</t>
+  </si>
+  <si>
+    <t>Создание и воплощение инновационных и сложных проектов.</t>
+  </si>
+  <si>
+    <t>Развитие коммуникативных навыков и улучшение коллаборации с коллегами .</t>
+  </si>
+  <si>
+    <t>Активное участие в проектах, способствующих достижению стратегических целей организации.</t>
+  </si>
+  <si>
+    <t>Активное участие в профессиональных сообществах и форумах по новым технологиям.</t>
+  </si>
+  <si>
+    <t>Активное участие в международных событиях для обмена опытом.</t>
+  </si>
+  <si>
+    <t>Улучшение навыков взаимодействия с представителями различных культур.</t>
+  </si>
+  <si>
+    <t>Активное участие в специализированных образовательных программах.</t>
+  </si>
+  <si>
+    <t>Систематические обсуждения для повышения эффективности командной работы.</t>
+  </si>
+  <si>
+    <t>Постоянное обновление знаний через систематическое чтение профессиональных материалов.</t>
+  </si>
+  <si>
+    <t>Активное участие в научных исследованиях выбранной области.</t>
+  </si>
+  <si>
+    <t>Участвовать в тренингах.</t>
+  </si>
+  <si>
+    <t>Достичь меж/нар. стандартов.</t>
+  </si>
+  <si>
+    <t>Участие в глобальных задачах.</t>
+  </si>
+  <si>
+    <t>Участие в конференциях.</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -987,169 +987,169 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="17.25"/>
@@ -1176,142 +1176,142 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1324,25 +1324,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="76.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24">
+    <row r="1" spans="1:4" ht="36">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D1" s="6">
         <v>45382</v>
@@ -1350,13 +1352,13 @@
     </row>
     <row r="2" spans="1:4" ht="24">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6">
         <v>45383</v>
@@ -1364,83 +1366,83 @@
     </row>
     <row r="3" spans="1:4" ht="24">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
         <v>45384</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24">
+    <row r="4" spans="1:4" ht="36">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6">
         <v>45385</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24">
+    <row r="5" spans="1:4" ht="36">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
         <v>45386</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24">
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6">
         <v>45387</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24">
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>45388</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24">
+    <row r="8" spans="1:4" ht="36">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6">
         <v>45389</v>
@@ -1448,69 +1450,69 @@
     </row>
     <row r="9" spans="1:4" ht="24">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6">
         <v>45390</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24">
+    <row r="10" spans="1:4" ht="36">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6">
         <v>45391</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24">
+    <row r="11" spans="1:4" ht="36">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6">
         <v>45392</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24">
+    <row r="12" spans="1:4" ht="36">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6">
         <v>45393</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="24">
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
         <v>45394</v>
@@ -1518,83 +1520,83 @@
     </row>
     <row r="14" spans="1:4" ht="36">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6">
         <v>45395</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24">
+    <row r="15" spans="1:4" ht="36">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6">
         <v>45396</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24">
+    <row r="16" spans="1:4" ht="36">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6">
         <v>45397</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24">
+    <row r="17" spans="1:4" ht="36">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <v>45398</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24">
+    <row r="18" spans="1:4" ht="36">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6">
         <v>45399</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24">
+    <row r="19" spans="1:4" ht="48">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6">
         <v>45400</v>
@@ -1602,13 +1604,13 @@
     </row>
     <row r="20" spans="1:4" ht="24">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6">
         <v>45401</v>
@@ -1616,41 +1618,41 @@
     </row>
     <row r="21" spans="1:4" ht="24">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D21" s="6">
         <v>45402</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24">
+    <row r="22" spans="1:4" ht="36">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D22" s="6">
         <v>45403</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24">
+    <row r="23" spans="1:4" ht="36">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D23" s="6">
         <v>45404</v>
@@ -1658,69 +1660,69 @@
     </row>
     <row r="24" spans="1:4" ht="24">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6">
         <v>45405</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24">
+    <row r="25" spans="1:4" ht="36">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D25" s="6">
         <v>45406</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24">
+    <row r="26" spans="1:4" ht="36">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6">
         <v>45407</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24">
+    <row r="27" spans="1:4" ht="36">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6">
         <v>45408</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24">
+    <row r="28" spans="1:4" ht="36">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6">
         <v>45409</v>
@@ -1728,27 +1730,27 @@
     </row>
     <row r="29" spans="1:4" ht="24">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6">
         <v>45410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24">
+    <row r="30" spans="1:4" ht="36">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D30" s="6">
         <v>45411</v>
@@ -1765,253 +1767,253 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="107.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="7" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
       <c r="A15" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="7" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="7" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
       <c r="A21" s="7" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
       <c r="A22" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="7" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25">
       <c r="A25" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25">
       <c r="A26" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25">
       <c r="A27" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25">
       <c r="A28" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25">
       <c r="A29" s="7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25">
       <c r="A30" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2024,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2037,200 +2039,200 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
